--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spp1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spp1-Itga4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H2">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I2">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J2">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N2">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O2">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P2">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q2">
-        <v>1.9222316367165</v>
+        <v>16.890400005639</v>
       </c>
       <c r="R2">
-        <v>7.688926546866</v>
+        <v>67.56160002255599</v>
       </c>
       <c r="S2">
-        <v>3.419860597088184E-06</v>
+        <v>1.717293341738384E-05</v>
       </c>
       <c r="T2">
-        <v>1.54190096629696E-06</v>
+        <v>7.775286941160691E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H3">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I3">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J3">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P3">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q3">
-        <v>0.1722293404815</v>
+        <v>0.5814223012096666</v>
       </c>
       <c r="R3">
-        <v>1.033376042889</v>
+        <v>3.488533807258</v>
       </c>
       <c r="S3">
-        <v>3.064148586074048E-07</v>
+        <v>5.911480167859974E-07</v>
       </c>
       <c r="T3">
-        <v>2.072283444726274E-07</v>
+        <v>4.014758582732651E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H4">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I4">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J4">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N4">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O4">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P4">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q4">
-        <v>299.2508995754085</v>
+        <v>1191.645852008523</v>
       </c>
       <c r="R4">
-        <v>1795.505397452451</v>
+        <v>7149.875112051136</v>
       </c>
       <c r="S4">
-        <v>0.0005324001231450277</v>
+        <v>0.001211579054777382</v>
       </c>
       <c r="T4">
-        <v>0.000360062160881453</v>
+        <v>0.0008228391656074023</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H5">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I5">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J5">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N5">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O5">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P5">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q5">
-        <v>8.39716035864525</v>
+        <v>54.89188248854551</v>
       </c>
       <c r="R5">
-        <v>33.588641434581</v>
+        <v>219.567529954182</v>
       </c>
       <c r="S5">
-        <v>1.493946790253412E-05</v>
+        <v>5.581008400132245E-05</v>
       </c>
       <c r="T5">
-        <v>6.735707301780929E-06</v>
+        <v>2.526879984763086E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H6">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I6">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J6">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N6">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O6">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P6">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q6">
-        <v>3.718759423596</v>
+        <v>1161.818074582945</v>
       </c>
       <c r="R6">
-        <v>22.312556541576</v>
+        <v>6970.908447497672</v>
       </c>
       <c r="S6">
-        <v>6.616080278717205E-06</v>
+        <v>0.00118125233453707</v>
       </c>
       <c r="T6">
-        <v>4.474454565577105E-06</v>
+        <v>0.0008022428924383083</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H7">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I7">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J7">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N7">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O7">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P7">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q7">
-        <v>429.3609842046015</v>
+        <v>457.1251504600179</v>
       </c>
       <c r="R7">
-        <v>2576.165905227609</v>
+        <v>2742.750902760108</v>
       </c>
       <c r="S7">
-        <v>0.0007638802128532852</v>
+        <v>0.0004647716909984731</v>
       </c>
       <c r="T7">
-        <v>0.0005166121271155588</v>
+        <v>0.000315647872015577</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>95.339054</v>
       </c>
       <c r="I8">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J8">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N8">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O8">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P8">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q8">
-        <v>10.08251809640067</v>
+        <v>26.243314021202</v>
       </c>
       <c r="R8">
-        <v>60.49510857840401</v>
+        <v>157.459884127212</v>
       </c>
       <c r="S8">
-        <v>1.793790389185786E-05</v>
+        <v>2.668229788442761E-05</v>
       </c>
       <c r="T8">
-        <v>1.213140297344893E-05</v>
+        <v>1.812117801239529E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>95.339054</v>
       </c>
       <c r="I9">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J9">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P9">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q9">
         <v>0.9033799095628888</v>
@@ -1013,10 +1013,10 @@
         <v>8.130419186066</v>
       </c>
       <c r="S9">
-        <v>1.60721179378386E-06</v>
+        <v>9.184911566538596E-07</v>
       </c>
       <c r="T9">
-        <v>1.630435812201157E-06</v>
+        <v>9.356845027719297E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>95.339054</v>
       </c>
       <c r="I10">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J10">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N10">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O10">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P10">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q10">
-        <v>1569.635288849544</v>
+        <v>1851.50951344443</v>
       </c>
       <c r="R10">
-        <v>14126.7175996459</v>
+        <v>16663.58562099987</v>
       </c>
       <c r="S10">
-        <v>0.002792553079245451</v>
+        <v>0.001882480556139502</v>
       </c>
       <c r="T10">
-        <v>0.002832905137632846</v>
+        <v>0.001917718935439914</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>95.339054</v>
       </c>
       <c r="I11">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J11">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N11">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O11">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P11">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q11">
-        <v>44.04491095518567</v>
+        <v>85.28779122346901</v>
       </c>
       <c r="R11">
-        <v>264.269465731114</v>
+        <v>511.726747340814</v>
       </c>
       <c r="S11">
-        <v>7.836072021746276E-05</v>
+        <v>8.671443894208451E-05</v>
       </c>
       <c r="T11">
-        <v>5.299534884224813E-05</v>
+        <v>5.889177128299663E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>95.339054</v>
       </c>
       <c r="I12">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J12">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N12">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O12">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P12">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q12">
-        <v>19.50569248179378</v>
+        <v>1805.164860311727</v>
       </c>
       <c r="R12">
-        <v>175.551232336144</v>
+        <v>16246.48374280554</v>
       </c>
       <c r="S12">
-        <v>3.470276311306181E-05</v>
+        <v>0.00183536067489134</v>
       </c>
       <c r="T12">
-        <v>3.520421389433777E-05</v>
+        <v>0.001869717011483477</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>95.339054</v>
       </c>
       <c r="I13">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J13">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N13">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O13">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P13">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q13">
-        <v>2252.090648412194</v>
+        <v>710.2542785550572</v>
       </c>
       <c r="R13">
-        <v>20268.81583570975</v>
+        <v>6392.288506995515</v>
       </c>
       <c r="S13">
-        <v>0.004006715903777182</v>
+        <v>0.0007221350252786123</v>
       </c>
       <c r="T13">
-        <v>0.004064612469931121</v>
+        <v>0.0007356527574240458</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H14">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I14">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J14">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N14">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O14">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P14">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q14">
-        <v>1064.245346481961</v>
+        <v>757.6643307930599</v>
       </c>
       <c r="R14">
-        <v>6385.472078891764</v>
+        <v>4545.985984758359</v>
       </c>
       <c r="S14">
-        <v>0.001893409023422967</v>
+        <v>0.0007703381270480252</v>
       </c>
       <c r="T14">
-        <v>0.001280512371745649</v>
+        <v>0.0005231721192243898</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H15">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I15">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J15">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P15">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q15">
-        <v>95.35493570805622</v>
+        <v>26.08126146255333</v>
       </c>
       <c r="R15">
-        <v>858.1944213725059</v>
+        <v>234.73135316298</v>
       </c>
       <c r="S15">
-        <v>0.000169646873528153</v>
+        <v>2.651753459884165E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001720982505840536</v>
+        <v>2.701391950930367E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H16">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I16">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J16">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N16">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O16">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P16">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q16">
-        <v>165680.5408986406</v>
+        <v>53454.48045652757</v>
       </c>
       <c r="R16">
-        <v>1491124.868087766</v>
+        <v>481090.3241087481</v>
       </c>
       <c r="S16">
-        <v>0.2947638269503126</v>
+        <v>0.05434863789101037</v>
       </c>
       <c r="T16">
-        <v>0.299023129036275</v>
+        <v>0.05536599656184399</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H17">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I17">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J17">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N17">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O17">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P17">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q17">
-        <v>4649.095699317646</v>
+        <v>2462.32305912057</v>
       </c>
       <c r="R17">
-        <v>27894.57419590588</v>
+        <v>14773.93835472342</v>
       </c>
       <c r="S17">
-        <v>0.008271250400054388</v>
+        <v>0.00250351145812113</v>
       </c>
       <c r="T17">
-        <v>0.005593845986816016</v>
+        <v>0.001700249992904894</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H18">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I18">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J18">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N18">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O18">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P18">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q18">
-        <v>2058.894638737901</v>
+        <v>52116.47525744115</v>
       </c>
       <c r="R18">
-        <v>18530.0517486411</v>
+        <v>469048.2773169703</v>
       </c>
       <c r="S18">
-        <v>0.003662999044487331</v>
+        <v>0.05298825126971347</v>
       </c>
       <c r="T18">
-        <v>0.003715928943086094</v>
+        <v>0.05398014470022885</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H19">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I19">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J19">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N19">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O19">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P19">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q19">
-        <v>237716.1111452742</v>
+        <v>20505.57838158572</v>
       </c>
       <c r="R19">
-        <v>2139445.000307467</v>
+        <v>184550.2054342715</v>
       </c>
       <c r="S19">
-        <v>0.4229229954759386</v>
+        <v>0.02084858452815515</v>
       </c>
       <c r="T19">
-        <v>0.4290341822367749</v>
+        <v>0.02123885168235433</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H20">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I20">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J20">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N20">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O20">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P20">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q20">
-        <v>40.221164352295</v>
+        <v>158.7427328874045</v>
       </c>
       <c r="R20">
-        <v>160.88465740918</v>
+        <v>634.9709315496179</v>
       </c>
       <c r="S20">
-        <v>7.155785624899078E-05</v>
+        <v>0.0001613980948621004</v>
       </c>
       <c r="T20">
-        <v>3.226304832144382E-05</v>
+        <v>7.307525562517908E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H21">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I21">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J21">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O21">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P21">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q21">
-        <v>3.603761626578333</v>
+        <v>5.464439268749834</v>
       </c>
       <c r="R21">
-        <v>21.62256975947</v>
+        <v>32.786635612499</v>
       </c>
       <c r="S21">
-        <v>6.411486603709103E-06</v>
+        <v>5.555845432568151E-06</v>
       </c>
       <c r="T21">
-        <v>4.336087879463422E-06</v>
+        <v>3.773230646363445E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H22">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I22">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J22">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N22">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O22">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P22">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q22">
-        <v>6261.586472978121</v>
+        <v>11199.5641973321</v>
       </c>
       <c r="R22">
-        <v>37569.51883786873</v>
+        <v>67197.38518399261</v>
       </c>
       <c r="S22">
-        <v>0.01114004808014533</v>
+        <v>0.01138690440725437</v>
       </c>
       <c r="T22">
-        <v>0.007534013629384094</v>
+        <v>0.007733371491006854</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H23">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I23">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J23">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N23">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O23">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P23">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q23">
-        <v>175.7038852271575</v>
+        <v>515.8958601724553</v>
       </c>
       <c r="R23">
-        <v>702.8155409086301</v>
+        <v>2063.583440689821</v>
       </c>
       <c r="S23">
-        <v>0.0003125964542286231</v>
+        <v>0.0005245254851328411</v>
       </c>
       <c r="T23">
-        <v>0.0001409393047326276</v>
+        <v>0.0002374862847095728</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H24">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I24">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J24">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N24">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O24">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P24">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q24">
-        <v>77.81207587374666</v>
+        <v>10919.23081843565</v>
       </c>
       <c r="R24">
-        <v>466.87245524248</v>
+        <v>65515.38491061392</v>
       </c>
       <c r="S24">
-        <v>0.0001384362046568007</v>
+        <v>0.01110188176428253</v>
       </c>
       <c r="T24">
-        <v>9.362439418402727E-05</v>
+        <v>0.007539799480334167</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H25">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I25">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J25">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N25">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O25">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P25">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q25">
-        <v>8984.036253640845</v>
+        <v>4296.244945730278</v>
       </c>
       <c r="R25">
-        <v>53904.21752184507</v>
+        <v>25777.46967438167</v>
       </c>
       <c r="S25">
-        <v>0.015983584392108</v>
+        <v>0.004368110191183521</v>
       </c>
       <c r="T25">
-        <v>0.01080969685141446</v>
+        <v>0.002966584913152904</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H26">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I26">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J26">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N26">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O26">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P26">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q26">
-        <v>2.948477979766</v>
+        <v>619.2658946740378</v>
       </c>
       <c r="R26">
-        <v>17.690867878596</v>
+        <v>3715.595368044227</v>
       </c>
       <c r="S26">
-        <v>5.245665231901009E-06</v>
+        <v>0.0006296246372698948</v>
       </c>
       <c r="T26">
-        <v>3.547642978558213E-06</v>
+        <v>0.0004276071042448125</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H27">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I27">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J27">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O27">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P27">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q27">
-        <v>0.2641796171593333</v>
+        <v>21.31713881387266</v>
       </c>
       <c r="R27">
-        <v>2.377616554434</v>
+        <v>191.854249324854</v>
       </c>
       <c r="S27">
-        <v>4.700044708557108E-07</v>
+        <v>2.167372030132772E-05</v>
       </c>
       <c r="T27">
-        <v>4.767959793112746E-07</v>
+        <v>2.207943327102527E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H28">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I28">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J28">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N28">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O28">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P28">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q28">
-        <v>459.0157975604006</v>
+        <v>43690.24028041341</v>
       </c>
       <c r="R28">
-        <v>4131.142178043606</v>
+        <v>393212.1625237207</v>
       </c>
       <c r="S28">
-        <v>0.0008166393734936421</v>
+        <v>0.04442106682343523</v>
       </c>
       <c r="T28">
-        <v>0.0008284397148821628</v>
+        <v>0.04525259010081945</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H29">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I29">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J29">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N29">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O29">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P29">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q29">
-        <v>12.880259557231</v>
+        <v>2012.543853802311</v>
       </c>
       <c r="R29">
-        <v>77.281557343386</v>
+        <v>12075.26312281387</v>
       </c>
       <c r="S29">
-        <v>2.291539234849213E-05</v>
+        <v>0.002046208591233694</v>
       </c>
       <c r="T29">
-        <v>1.549767802025245E-05</v>
+        <v>0.001389674543506199</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H30">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I30">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J30">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N30">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O30">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P30">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q30">
-        <v>5.704140990650666</v>
+        <v>42596.64123791463</v>
       </c>
       <c r="R30">
-        <v>51.337268915856</v>
+        <v>383369.7711412317</v>
       </c>
       <c r="S30">
-        <v>1.014829151781296E-05</v>
+        <v>0.04330917465179476</v>
       </c>
       <c r="T30">
-        <v>1.029493311789661E-05</v>
+        <v>0.04411988428626636</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H31">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I31">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J31">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N31">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O31">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P31">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q31">
-        <v>658.589414052306</v>
+        <v>16759.93553634715</v>
       </c>
       <c r="R31">
-        <v>5927.304726470755</v>
+        <v>150839.4198271244</v>
       </c>
       <c r="S31">
-        <v>0.00117170269376284</v>
+        <v>0.01704028660950864</v>
       </c>
       <c r="T31">
-        <v>0.001188633657712203</v>
+        <v>0.01735926577823112</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H32">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I32">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J32">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N32">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O32">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P32">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q32">
-        <v>335.094998199727</v>
+        <v>4183.519720585171</v>
       </c>
       <c r="R32">
-        <v>2010.569989198362</v>
+        <v>25101.11832351102</v>
       </c>
       <c r="S32">
-        <v>0.0005961707001046497</v>
+        <v>0.004253499359869268</v>
       </c>
       <c r="T32">
-        <v>0.0004031901970004148</v>
+        <v>0.002888747416345469</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H33">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I33">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J33">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O33">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P33">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q33">
-        <v>30.02405612113033</v>
+        <v>144.0103053975381</v>
       </c>
       <c r="R33">
-        <v>270.216505090173</v>
+        <v>1296.092748577843</v>
       </c>
       <c r="S33">
-        <v>5.341608395791968E-05</v>
+        <v>0.0001464192313493686</v>
       </c>
       <c r="T33">
-        <v>5.418793998984813E-05</v>
+        <v>0.0001491600705013782</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H34">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I34">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J34">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N34">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O34">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P34">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q34">
-        <v>52167.21946465269</v>
+        <v>295154.2841002462</v>
       </c>
       <c r="R34">
-        <v>469504.9751818742</v>
+        <v>2656388.556902215</v>
       </c>
       <c r="S34">
-        <v>0.09281119657959802</v>
+        <v>0.3000914642055194</v>
       </c>
       <c r="T34">
-        <v>0.0941523072826382</v>
+        <v>0.3057089123146124</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H35">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I35">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J35">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N35">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O35">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P35">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q35">
-        <v>1463.84357718177</v>
+        <v>13595.9641461544</v>
       </c>
       <c r="R35">
-        <v>8783.061463090617</v>
+        <v>81575.78487692641</v>
       </c>
       <c r="S35">
-        <v>0.002604338038289649</v>
+        <v>0.01382339002919394</v>
       </c>
       <c r="T35">
-        <v>0.001761313607880019</v>
+        <v>0.009388101150013345</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H36">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I36">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J36">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N36">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O36">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P36">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q36">
-        <v>648.2765440713147</v>
+        <v>287766.3539719208</v>
       </c>
       <c r="R36">
-        <v>5834.488896641832</v>
+        <v>2589897.185747287</v>
       </c>
       <c r="S36">
-        <v>0.001153354968641049</v>
+        <v>0.292579952805928</v>
       </c>
       <c r="T36">
-        <v>0.001170020810154282</v>
+        <v>0.2980567920322599</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H37">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I37">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J37">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N37">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O37">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P37">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q37">
-        <v>74848.79318438437</v>
+        <v>113223.6111096529</v>
       </c>
       <c r="R37">
-        <v>673639.1386594592</v>
+        <v>1019012.499986876</v>
       </c>
       <c r="S37">
-        <v>0.1331642002251734</v>
+        <v>0.1151175540077607</v>
       </c>
       <c r="T37">
-        <v>0.1350884070101878</v>
+        <v>0.1172724533075337</v>
       </c>
     </row>
   </sheetData>
